--- a/ClosedXML_Tests/Resource/StyleReferenceFiles/TransparentBackgroundFill/TransparentBackgroundFill.xlsx
+++ b/ClosedXML_Tests/Resource/StyleReferenceFiles/TransparentBackgroundFill/TransparentBackgroundFill.xlsx
@@ -63,88 +63,20 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="2">
+  <x:cellStyleXfs count="1">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="5">
+  <x:cellXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
   </x:cellXfs>
   <x:cellStyles count="1">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
   </x:cellStyles>
-  <x:dxfs count="9">
-    <x:dxf>
-      <x:font>
-        <x:color theme="1"/>
-      </x:font>
-      <x:fill>
-        <x:patternFill patternType="solid"/>
-      </x:fill>
-    </x:dxf>
-    <x:dxf>
-      <x:fill>
-        <x:patternFill>
-          <x:bgColor rgb="FFFF0000"/>
-        </x:patternFill>
-      </x:fill>
-    </x:dxf>
-    <x:dxf>
-      <x:fill>
-        <x:patternFill>
-          <x:bgColor rgb="FFFF0000"/>
-        </x:patternFill>
-      </x:fill>
-    </x:dxf>
-    <x:dxf>
-      <x:font>
-        <x:color theme="1"/>
-      </x:font>
-      <x:fill>
-        <x:patternFill patternType="solid"/>
-      </x:fill>
-    </x:dxf>
-    <x:dxf>
-      <x:font>
-        <x:color theme="1"/>
-      </x:font>
-      <x:fill>
-        <x:patternFill patternType="solid"/>
-      </x:fill>
-    </x:dxf>
-    <x:dxf>
-      <x:fill>
-        <x:patternFill patternType="solid">
-          <x:fgColor auto="1"/>
-          <x:bgColor rgb="FFFF0000"/>
-        </x:patternFill>
-      </x:fill>
-    </x:dxf>
-    <x:dxf>
-      <x:font>
-        <x:color theme="1"/>
-      </x:font>
-      <x:fill>
-        <x:patternFill patternType="solid">
-          <x:fgColor auto="1"/>
-          <x:bgColor/>
-        </x:patternFill>
-      </x:fill>
-    </x:dxf>
+  <x:dxfs count="2">
     <x:dxf>
       <x:fill>
         <x:patternFill patternType="solid">
@@ -480,15 +412,15 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="9.570312" style="4" customWidth="1"/>
-    <x:col min="2" max="16384" width="9" style="4" customWidth="1"/>
+    <x:col min="1" max="1" width="9.570312" style="0" customWidth="1"/>
+    <x:col min="2" max="16384" width="9" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:1" customFormat="1" ht="18" customHeight="1"/>
     <x:row r="2" spans="1:1" customFormat="1" ht="18" customHeight="1"/>
     <x:row r="3" spans="1:1" customFormat="1" ht="18" customHeight="1"/>
     <x:row r="4" spans="1:1" customFormat="1" ht="18" customHeight="1">
-      <x:c r="A4" s="4" t="n">
+      <x:c r="A4" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -505,10 +437,10 @@
   </x:sheetData>
   <x:phoneticPr fontId="1" type="noConversion"/>
   <x:conditionalFormatting sqref="A1:A7">
-    <x:cfRule type="cellIs" dxfId="7" priority="1" operator="notEqual">
+    <x:cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
       <x:formula>5</x:formula>
     </x:cfRule>
-    <x:cfRule type="expression" dxfId="8" priority="2" operator="equal">
+    <x:cfRule type="expression" dxfId="1" priority="2" operator="equal">
       <x:formula>5</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
